--- a/protected/commands/template/m_template_old.xlsx
+++ b/protected/commands/template/m_template_old.xlsx
@@ -1580,11 +1580,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1611,48 +1670,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1709,38 +1736,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1807,7 +1807,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,25 +1885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,13 +1903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,6 +1933,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1885,7 +1951,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,13 +1975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,73 +1999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,37 +2017,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2147,6 +2147,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2221,32 +2247,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2287,10 +2287,10 @@
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2299,190 +2299,190 @@
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2494,22 +2494,22 @@
     <xf numFmtId="0" fontId="0" fillId="48" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2613,11 +2613,11 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2942,10 +2942,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2977,26 +2977,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3359,10 +3359,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4116,128 +4116,108 @@
       <c r="E72" s="27"/>
       <c r="F72" s="28"/>
     </row>
-    <row r="73" ht="21.75" spans="1:6">
-      <c r="A73" s="33"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="37"/>
-    </row>
-    <row r="74" ht="21.75" spans="1:6">
-      <c r="A74" s="38"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="40" t="s">
+    <row r="73" s="1" customFormat="1" ht="21.75" spans="1:6">
+      <c r="A73" s="23"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="21.75" spans="1:6">
+      <c r="A74" s="23"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="28"/>
+    </row>
+    <row r="75" ht="21.75" spans="1:6">
+      <c r="A75" s="34"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="37"/>
+    </row>
+    <row r="76" ht="21.75" spans="1:6">
+      <c r="A76" s="38"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="42">
-        <f>SUM(F75:F124)/190*100</f>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="42">
+        <f>SUM(F77:F126)/190*100</f>
         <v>34.7368421052632</v>
       </c>
     </row>
-    <row r="75" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A75" s="43" t="s">
+    <row r="77" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A77" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="48">
-        <f>SUM(E76:E86)</f>
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="48">
+        <f>SUM(E78:E88)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A76" s="49" t="s">
+    <row r="78" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A78" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B78" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C78" s="51">
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D76" s="139" t="s">
+      <c r="D78" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="53">
-        <f>IF(C76&gt;0.2,5,IF(C76&gt;0.1,4,IF(C76&gt;0,3,IF(C76&gt;-0.1,2,IF(C76&gt;-0.2,1,0)))))</f>
+      <c r="E78" s="53">
+        <f>IF(C78&gt;0.2,5,IF(C78&gt;0.1,4,IF(C78&gt;0,3,IF(C78&gt;-0.1,2,IF(C78&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F76" s="54"/>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50" t="s">
+      <c r="F78" s="54"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A79" s="49"/>
+      <c r="B79" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C79" s="51">
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="139" t="s">
+      <c r="D79" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="53">
-        <f>IF(C77&gt;0.2,5,IF(C77&gt;0.1,4,IF(C77&gt;0,3,IF(C77&gt;-0.1,2,IF(C77&gt;-0.2,1,0)))))</f>
+      <c r="E79" s="53">
+        <f>IF(C79&gt;0.2,5,IF(C79&gt;0.1,4,IF(C79&gt;0,3,IF(C79&gt;-0.1,2,IF(C79&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F77" s="54"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A78" s="49"/>
-      <c r="B78" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="56">
-        <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="53">
-        <f>IF(C78&gt;0.4,5,IF(C78&gt;0.2,4,IF(C78&gt;0,3,IF(C78&gt;-0.2,2,IF(C78&gt;-0.4,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F78" s="57"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A79" s="49"/>
-      <c r="B79" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="56">
-        <f>(B32-B34)/ABS(IF(B34=0,1,B34))</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="139" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="53">
-        <f>IF(C79&gt;0.4,5,IF(C79&gt;0.2,4,IF(C79&gt;0,3,IF(C79&gt;-0.2,2,IF(C79&gt;-0.4,1,0)))))</f>
-        <v>2</v>
-      </c>
-      <c r="F79" s="57"/>
+      <c r="F79" s="54"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A80" s="49"/>
       <c r="B80" s="55" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C80" s="56">
-        <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
+        <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
       <c r="D80" s="139" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E80" s="53">
-        <f>IF(C80&gt;3,5,IF(C80&gt;1,4,IF(C80&gt;0,3,IF(C80&gt;-1,2,IF(C80&gt;-2,1,0)))))</f>
+        <f>IF(C80&gt;0.4,5,IF(C80&gt;0.2,4,IF(C80&gt;0,3,IF(C80&gt;-0.2,2,IF(C80&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
       <c r="F80" s="57"/>
@@ -4245,17 +4225,17 @@
     <row r="81" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A81" s="49"/>
       <c r="B81" s="55" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C81" s="56">
-        <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
+        <f>(B32-B34)/ABS(IF(B34=0,1,B34))</f>
         <v>0</v>
       </c>
       <c r="D81" s="139" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E81" s="53">
-        <f>IF(C81&gt;3,5,IF(C81&gt;1,4,IF(C81&gt;0,3,IF(C81&gt;-1,2,IF(C81&gt;-2,1,0)))))</f>
+        <f>IF(C81&gt;0.4,5,IF(C81&gt;0.2,4,IF(C81&gt;0,3,IF(C81&gt;-0.2,2,IF(C81&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
       <c r="F81" s="57"/>
@@ -4263,17 +4243,17 @@
     <row r="82" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A82" s="49"/>
       <c r="B82" s="55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C82" s="56">
-        <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
+        <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
       <c r="D82" s="139" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E82" s="53">
-        <f>IF(C82&gt;0.2,5,IF(C82&gt;0.1,4,IF(C82&gt;0,3,IF(C82&gt;-0.1,2,IF(C82&gt;-0.2,1,0)))))</f>
+        <f>IF(C82&gt;3,5,IF(C82&gt;1,4,IF(C82&gt;0,3,IF(C82&gt;-1,2,IF(C82&gt;-2,1,0)))))</f>
         <v>2</v>
       </c>
       <c r="F82" s="57"/>
@@ -4281,389 +4261,387 @@
     <row r="83" s="2" customFormat="1" ht="75" spans="1:6">
       <c r="A83" s="49"/>
       <c r="B83" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="56">
+        <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="53">
+        <f>IF(C83&gt;3,5,IF(C83&gt;1,4,IF(C83&gt;0,3,IF(C83&gt;-1,2,IF(C83&gt;-2,1,0)))))</f>
+        <v>2</v>
+      </c>
+      <c r="F83" s="57"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A84" s="49"/>
+      <c r="B84" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="56">
+        <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="53">
+        <f>IF(C84&gt;0.2,5,IF(C84&gt;0.1,4,IF(C84&gt;0,3,IF(C84&gt;-0.1,2,IF(C84&gt;-0.2,1,0)))))</f>
+        <v>2</v>
+      </c>
+      <c r="F84" s="57"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A85" s="49"/>
+      <c r="B85" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="56">
+      <c r="C85" s="56">
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="139" t="s">
+      <c r="D85" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="53">
-        <f>IF(C83&gt;0.2,5,IF(C83&gt;0.1,4,IF(C83&gt;0,3,IF(C83&gt;-0.1,2,IF(C83&gt;-0.2,1,0)))))</f>
+      <c r="E85" s="53">
+        <f>IF(C85&gt;0.2,5,IF(C85&gt;0.1,4,IF(C85&gt;0,3,IF(C85&gt;-0.1,2,IF(C85&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F83" s="57"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A84" s="58" t="s">
+      <c r="F85" s="57"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A86" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="59" t="s">
+      <c r="B86" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="56">
+      <c r="C86" s="56">
         <f>(B13/IF(B14=0,1,B14))</f>
         <v>0</v>
       </c>
-      <c r="D84" s="60" t="s">
+      <c r="D86" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="53">
-        <f>IF(C84&gt;2.3,1,IF(C84&gt;1.5,3,IF(C84&gt;=1,5,IF(C84&gt;0.7,4,IF(C84&gt;0.4,2,IF(C84&gt;0.2,1,0))))))</f>
+      <c r="E86" s="53">
+        <f>IF(C86&gt;2.3,1,IF(C86&gt;1.5,3,IF(C86&gt;=1,5,IF(C86&gt;0.7,4,IF(C86&gt;0.4,2,IF(C86&gt;0.2,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F84" s="57"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A85" s="58"/>
-      <c r="B85" s="59" t="s">
+      <c r="F86" s="57"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A87" s="58"/>
+      <c r="B87" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="56">
+      <c r="C87" s="56">
         <f>(B5/IF(B6=0,1,B6))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D87" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E85" s="53">
-        <f>IF(C85&gt;2.3,1,IF(C85&gt;1.5,3,IF(C85&gt;=1,5,IF(C85&gt;0.7,4,IF(C85&gt;0.4,2,IF(C85&gt;0.2,1,0))))))</f>
+      <c r="E87" s="53">
+        <f>IF(C87&gt;2.3,1,IF(C87&gt;1.5,3,IF(C87&gt;=1,5,IF(C87&gt;0.7,4,IF(C87&gt;0.4,2,IF(C87&gt;0.2,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F85" s="57"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A86" s="61" t="s">
+      <c r="F87" s="57"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A88" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B88" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="56">
+      <c r="C88" s="56">
         <f>(B19/IF(B4=0,1,B4))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="60" t="s">
+      <c r="D88" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="53">
-        <f>IF(C86&gt;0.032,1,IF(C86&gt;0.024,2,IF(C86&gt;0.016,3,IF(C86&gt;0.008,4,IF(C86&gt;0,5,5)))))</f>
+      <c r="E88" s="53">
+        <f>IF(C88&gt;0.032,1,IF(C88&gt;0.024,2,IF(C88&gt;0.016,3,IF(C88&gt;0.008,4,IF(C88&gt;0,5,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F86" s="57"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A87" s="62" t="s">
+      <c r="F88" s="57"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A89" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="63"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="67">
-        <f>SUM(E88:E94)</f>
+      <c r="B89" s="63"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="67">
+        <f>SUM(E90:E96)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A88" s="68" t="s">
+    <row r="90" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A90" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="69" t="s">
+      <c r="B90" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="70">
+      <c r="C90" s="70">
         <f>(B20-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D88" s="71" t="s">
+      <c r="D90" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="72">
-        <f>IF(C88&gt;0.2,5,IF(C88&gt;0,4,IF(C88&gt;-0.1,3,IF(C88&gt;-0.2,2,IF(C88&gt;-0.3,1,0)))))</f>
+      <c r="E90" s="72">
+        <f>IF(C90&gt;0.2,5,IF(C90&gt;0,4,IF(C90&gt;-0.1,3,IF(C90&gt;-0.2,2,IF(C90&gt;-0.3,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F88" s="73"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="46.5" spans="1:6">
-      <c r="A89" s="68"/>
-      <c r="B89" s="69" t="s">
+      <c r="F90" s="73"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="46.5" spans="1:6">
+      <c r="A91" s="68"/>
+      <c r="B91" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="70">
+      <c r="C91" s="70">
         <f>(B21-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D91" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="E89" s="72">
-        <f>IF(C89&gt;0.7,5,IF(C89&gt;0.3,4,IF(C89&gt;0.1,3,)))</f>
+      <c r="E91" s="72">
+        <f>IF(C91&gt;0.7,5,IF(C91&gt;0.3,4,IF(C91&gt;0.1,3,)))</f>
         <v>0</v>
       </c>
-      <c r="F89" s="73"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A90" s="68"/>
-      <c r="B90" s="69" t="s">
+      <c r="F91" s="73"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A92" s="68"/>
+      <c r="B92" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="74">
+      <c r="C92" s="74">
         <f>B21</f>
         <v>0</v>
       </c>
-      <c r="D90" s="75" t="s">
+      <c r="D92" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E92" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F90" s="73"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A91" s="68" t="s">
+      <c r="F92" s="73"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A93" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="69" t="s">
+      <c r="B93" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="C91" s="70">
+      <c r="C93" s="70">
         <f>B25/IF(B5=0,1,B5)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D93" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="E91" s="72">
-        <f>IF(C91&gt;0.3,0,IF(C91&gt;0.25,1,IF(C91&gt;0.2,2,IF(C91&gt;0.15,3,IF(C91&gt;0.1,4,5)))))</f>
+      <c r="E93" s="72">
+        <f>IF(C93&gt;0.3,0,IF(C93&gt;0.25,1,IF(C93&gt;0.2,2,IF(C93&gt;0.15,3,IF(C93&gt;0.1,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F91" s="73"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A92" s="68"/>
-      <c r="B92" s="69" t="s">
+      <c r="F93" s="73"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A94" s="68"/>
+      <c r="B94" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="70">
+      <c r="C94" s="70">
         <f>B26/IF(B6=0,1,B6)</f>
         <v>0</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D94" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="E92" s="72">
-        <f>IF(C92&gt;0.25,0,IF(C92&gt;0.2,1,IF(C92&gt;0.15,2,IF(C92&gt;0.1,3,IF(C92&gt;0.05,4,5)))))</f>
+      <c r="E94" s="72">
+        <f>IF(C94&gt;0.25,0,IF(C94&gt;0.2,1,IF(C94&gt;0.15,2,IF(C94&gt;0.1,3,IF(C94&gt;0.05,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F92" s="73"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A93" s="68" t="s">
+      <c r="F94" s="73"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A95" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="76" t="s">
+      <c r="B95" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C93" s="77">
+      <c r="C95" s="77">
         <f>B36/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="78" t="s">
+      <c r="D95" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E93" s="72">
-        <f>IF(C93&gt;0.2,5,IF(C93&gt;0.1,3,IF(C93&gt;0.05,1,0)))</f>
+      <c r="E95" s="72">
+        <f>IF(C95&gt;0.2,5,IF(C95&gt;0.1,3,IF(C95&gt;0.05,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F93" s="73"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A94" s="68"/>
-      <c r="B94" s="76" t="s">
+      <c r="F95" s="73"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="33" spans="1:6">
+      <c r="A96" s="68"/>
+      <c r="B96" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="79" t="s">
+      <c r="C96" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="D94" s="75" t="s">
+      <c r="D96" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="E94" s="72" t="s">
+      <c r="E96" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F94" s="73"/>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A95" s="62" t="s">
+      <c r="F96" s="73"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A97" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B95" s="80"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="67">
-        <f>SUM(E96:E100)</f>
+      <c r="B97" s="80"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="67">
+        <f>SUM(E98:E102)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A96" s="84" t="s">
+    <row r="98" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A98" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="85" t="s">
+      <c r="B98" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="C96" s="86">
+      <c r="C98" s="86">
         <f>(B5+B6-B25-B26-B27)/IF((B5+B6)=0,1,B5+B6)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="87" t="s">
+      <c r="D98" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="E96" s="88">
-        <f>IF(C96&gt;0.55,5,IF(C96&gt;0.5,4,IF(C96&gt;0.45,3,IF(C96&gt;0.4,2,IF(C96&gt;0.35,1,0)))))</f>
+      <c r="E98" s="88">
+        <f>IF(C98&gt;0.55,5,IF(C98&gt;0.5,4,IF(C98&gt;0.45,3,IF(C98&gt;0.4,2,IF(C98&gt;0.35,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F96" s="89"/>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A97" s="84"/>
-      <c r="B97" s="85" t="s">
+      <c r="F98" s="89"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A99" s="84"/>
+      <c r="B99" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="C97" s="86">
+      <c r="C99" s="86">
         <f>B28/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="87" t="s">
+      <c r="D99" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="E97" s="88">
-        <f>IF(C97&gt;0.35,1,IF(C97&gt;0.3,2,IF(C97&gt;0.28,3,IF(C97&gt;0.25,3,IF(C97&gt;0.2,5,0)))))</f>
+      <c r="E99" s="88">
+        <f>IF(C99&gt;0.35,1,IF(C99&gt;0.3,2,IF(C99&gt;0.28,3,IF(C99&gt;0.25,3,IF(C99&gt;0.2,5,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F97" s="89"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A98" s="84" t="s">
+      <c r="F99" s="89"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A100" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="85" t="s">
+      <c r="B100" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="90">
+      <c r="C100" s="90">
         <f>B23/IF(B3=0,1,B3)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="91" t="s">
+      <c r="D100" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="E98" s="88">
-        <f>IF(C98&gt;1,5,IF(C98&gt;0.95,4,IF(C98&gt;0.9,3,IF(C98&gt;0.85,2,IF(C98&gt;0.8,1,0)))))</f>
+      <c r="E100" s="88">
+        <f>IF(C100&gt;1,5,IF(C100&gt;0.95,4,IF(C100&gt;0.9,3,IF(C100&gt;0.85,2,IF(C100&gt;0.8,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F98" s="89"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A99" s="84"/>
-      <c r="B99" s="92" t="s">
+      <c r="F100" s="89"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A101" s="84"/>
+      <c r="B101" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="93">
+      <c r="C101" s="93">
         <f>B29</f>
         <v>0</v>
       </c>
-      <c r="D99" s="94" t="s">
+      <c r="D101" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="E99" s="88" t="s">
+      <c r="E101" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="89"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="75" spans="1:6">
-      <c r="A100" s="84" t="s">
+      <c r="F101" s="89"/>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="75" spans="1:6">
+      <c r="A102" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="92" t="s">
+      <c r="B102" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="C100" s="86">
+      <c r="C102" s="86">
         <f>B22/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="87" t="s">
+      <c r="D102" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="88">
-        <f>IF(C100&gt;0.7,0,IF(C100&gt;0.6,1,IF(C100&gt;0.5,2,IF(C100&gt;0.4,3,IF(C100&gt;0.3,4,5)))))</f>
+      <c r="E102" s="88">
+        <f>IF(C102&gt;0.7,0,IF(C102&gt;0.6,1,IF(C102&gt;0.5,2,IF(C102&gt;0.4,3,IF(C102&gt;0.3,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F100" s="89"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A101" s="62" t="s">
+      <c r="F102" s="89"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A103" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="B101" s="63"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="97"/>
-      <c r="F101" s="67">
-        <f>SUM(E102:E115)</f>
+      <c r="B103" s="63"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="96"/>
+      <c r="E103" s="97"/>
+      <c r="F103" s="67">
+        <f>SUM(E104:E117)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="102" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A102" s="98" t="s">
+    <row r="104" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A104" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="B102" s="99" t="s">
+      <c r="B104" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="C102" s="100">
+      <c r="C104" s="100">
         <f>B52/IF(B32=0,1,B32)</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="E102" s="102">
-        <f>IF(C102&gt;0.95,5,IF(C102&gt;0.9,4,IF(C102&gt;0.85,3,IF(C102&gt;0.8,2,IF(C102&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="103"/>
-    </row>
-    <row r="103" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A103" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" s="100">
-        <f>B57/IF(B56=0,1,B56)</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" s="102">
-        <f>IF(C103&gt;0.95,5,IF(C103&gt;0.9,4,IF(C103&gt;0.85,3,IF(C103&gt;0.8,2,IF(C103&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="103"/>
-    </row>
-    <row r="104" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A104" s="98"/>
-      <c r="B104" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="C104" s="100">
-        <f>B59/IF(B58=0,1,B58)</f>
         <v>0</v>
       </c>
       <c r="D104" s="101" t="s">
@@ -4675,178 +4653,180 @@
       </c>
       <c r="F104" s="103"/>
     </row>
-    <row r="105" s="3" customFormat="1" ht="33" spans="1:6">
-      <c r="A105" s="98"/>
-      <c r="B105" s="104" t="s">
+    <row r="105" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A105" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="100">
+        <f>B57/IF(B56=0,1,B56)</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="102">
+        <f>IF(C105&gt;0.95,5,IF(C105&gt;0.9,4,IF(C105&gt;0.85,3,IF(C105&gt;0.8,2,IF(C105&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="103"/>
+    </row>
+    <row r="106" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A106" s="98"/>
+      <c r="B106" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="100">
+        <f>B59/IF(B58=0,1,B58)</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="E106" s="102">
+        <f>IF(C106&gt;0.95,5,IF(C106&gt;0.9,4,IF(C106&gt;0.85,3,IF(C106&gt;0.8,2,IF(C106&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="103"/>
+    </row>
+    <row r="107" s="3" customFormat="1" ht="33" spans="1:6">
+      <c r="A107" s="98"/>
+      <c r="B107" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="C105" s="105" t="s">
+      <c r="C107" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="D105" s="106" t="s">
+      <c r="D107" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="E105" s="102" t="s">
+      <c r="E107" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="F105" s="103"/>
-    </row>
-    <row r="106" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A106" s="98" t="s">
+      <c r="F107" s="103"/>
+    </row>
+    <row r="108" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A108" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="B106" s="99" t="s">
+      <c r="B108" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="C106" s="107">
+      <c r="C108" s="107">
         <f>B60/100</f>
         <v>0</v>
       </c>
-      <c r="D106" s="108" t="s">
+      <c r="D108" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="E106" s="102">
-        <f>IF(C106&gt;1.08,0,IF(C106&gt;1.04,1,IF(C106&gt;1,3,IF(C106&gt;0.96,5,IF(C106&gt;0.92,3,IF(C106&gt;0.88,1,0))))))</f>
+      <c r="E108" s="102">
+        <f>IF(C108&gt;1.08,0,IF(C108&gt;1.04,1,IF(C108&gt;1,3,IF(C108&gt;0.96,5,IF(C108&gt;0.92,3,IF(C108&gt;0.88,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F106" s="103"/>
-    </row>
-    <row r="107" s="3" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A107" s="98"/>
-      <c r="B107" s="99" t="s">
+      <c r="F108" s="103"/>
+    </row>
+    <row r="109" s="3" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A109" s="98"/>
+      <c r="B109" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="C107" s="107">
+      <c r="C109" s="107">
         <f>B51/IF(B33=0,1,B33)</f>
         <v>0</v>
       </c>
-      <c r="D107" s="101" t="s">
+      <c r="D109" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="E107" s="102">
-        <f>IF(C107&gt;0.95,5,IF(C107&gt;0.9,4,IF(C107&gt;0.85,3,IF(C107&gt;0.8,2,IF(C107&gt;=0.75,1,0)))))</f>
+      <c r="E109" s="102">
+        <f>IF(C109&gt;0.95,5,IF(C109&gt;0.9,4,IF(C109&gt;0.85,3,IF(C109&gt;0.8,2,IF(C109&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F107" s="103"/>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="99" spans="1:6">
-      <c r="A108" s="98" t="s">
+      <c r="F109" s="103"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="99" spans="1:6">
+      <c r="A110" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="99" t="s">
+      <c r="B110" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="C108" s="100">
+      <c r="C110" s="100">
         <f>B48/(IF(B18=0,1,B18)/(1500*12))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="101" t="s">
+      <c r="D110" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="E108" s="102">
-        <f>IF(C108&gt;0.9,5,IF(C108&gt;0.7,4,IF(C108&gt;0.5,3,IF(C108&gt;0.3,2,IF(C108&gt;0.1,1,0)))))</f>
+      <c r="E110" s="102">
+        <f>IF(C110&gt;0.9,5,IF(C110&gt;0.7,4,IF(C110&gt;0.5,3,IF(C110&gt;0.3,2,IF(C110&gt;0.1,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F108" s="109"/>
-    </row>
-    <row r="109" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A109" s="98"/>
-      <c r="B109" s="99" t="s">
+      <c r="F110" s="109"/>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A111" s="98"/>
+      <c r="B111" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="C109" s="100">
+      <c r="C111" s="100">
         <f>B49/IF(B48=0,1,B48)</f>
         <v>0</v>
       </c>
-      <c r="D109" s="101" t="s">
+      <c r="D111" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="E109" s="102">
-        <f>IF(C109&gt;0.2,3,IF(C109&gt;0.1,5,IF(C109&gt;=0,1,0)))</f>
+      <c r="E111" s="102">
+        <f>IF(C111&gt;0.2,3,IF(C111&gt;0.1,5,IF(C111&gt;=0,1,0)))</f>
         <v>1</v>
       </c>
-      <c r="F109" s="109"/>
-    </row>
-    <row r="110" s="2" customFormat="1" ht="33" spans="1:6">
-      <c r="A110" s="98"/>
-      <c r="B110" s="104" t="s">
+      <c r="F111" s="109"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="33" spans="1:6">
+      <c r="A112" s="98"/>
+      <c r="B112" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="C110" s="100">
+      <c r="C112" s="100">
         <f>B50</f>
         <v>0</v>
       </c>
-      <c r="D110" s="110" t="s">
+      <c r="D112" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="E110" s="102" t="s">
+      <c r="E112" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="F110" s="109"/>
-    </row>
-    <row r="111" s="2" customFormat="1" ht="90" spans="1:6">
-      <c r="A111" s="98" t="s">
+      <c r="F112" s="109"/>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="90" spans="1:6">
+      <c r="A113" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="B111" s="99" t="s">
+      <c r="B113" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="C111" s="100">
+      <c r="C113" s="100">
         <f>(B42-B41)/ABS(IF(B41=0,1,B41))</f>
         <v>0</v>
       </c>
-      <c r="D111" s="101" t="s">
+      <c r="D113" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="E111" s="102">
-        <f>IF(C111&gt;0.05,0,IF(C111&gt;0,1,IF(C111&gt;-0.1,2,IF(C111&gt;-0.2,3,IF(C111&gt;-0.3,4,5)))))</f>
+      <c r="E113" s="102">
+        <f>IF(C113&gt;0.05,0,IF(C113&gt;0,1,IF(C113&gt;-0.1,2,IF(C113&gt;-0.2,3,IF(C113&gt;-0.3,4,5)))))</f>
         <v>2</v>
-      </c>
-      <c r="F111" s="109"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="97.5" spans="1:6">
-      <c r="A112" s="98"/>
-      <c r="B112" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="C112" s="100">
-        <f>B44/IF(B42=0,1,B42)</f>
-        <v>0</v>
-      </c>
-      <c r="D112" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" s="102">
-        <f>IF(C112&gt;0.95,5,IF(C112&gt;0.9,4,IF(C112&gt;0.85,3,IF(C112&gt;0.8,2,IF(C112&gt;=0.75,1,0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="109"/>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="64.5" spans="1:6">
-      <c r="A113" s="98"/>
-      <c r="B113" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="C113" s="112">
-        <f>B46/IF(B42=0,1,B42)</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="E113" s="113">
-        <f>IF(C113&gt;0.15,5,IF(C113&gt;0.1,3,IF(C113&gt;0.05,1,0)))</f>
-        <v>0</v>
       </c>
       <c r="F113" s="109"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="97.5" spans="1:6">
       <c r="A114" s="98"/>
       <c r="B114" s="99" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C114" s="100">
-        <f>B45/IF(B42=0,1,B42)</f>
+        <f>B44/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
       <c r="D114" s="101" t="s">
@@ -4858,199 +4838,219 @@
       </c>
       <c r="F114" s="109"/>
     </row>
-    <row r="115" s="2" customFormat="1" ht="19.5" spans="1:6">
+    <row r="115" s="2" customFormat="1" ht="64.5" spans="1:6">
       <c r="A115" s="98"/>
       <c r="B115" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="112">
+        <f>B46/IF(B42=0,1,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" s="113">
+        <f>IF(C115&gt;0.15,5,IF(C115&gt;0.1,3,IF(C115&gt;0.05,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="109"/>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="97.5" spans="1:6">
+      <c r="A116" s="98"/>
+      <c r="B116" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" s="100">
+        <f>B45/IF(B42=0,1,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="E116" s="102">
+        <f>IF(C116&gt;0.95,5,IF(C116&gt;0.9,4,IF(C116&gt;0.85,3,IF(C116&gt;0.8,2,IF(C116&gt;=0.75,1,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="109"/>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A117" s="98"/>
+      <c r="B117" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="C115" s="112">
+      <c r="C117" s="112">
         <f>B47</f>
         <v>0</v>
       </c>
-      <c r="D115" s="106" t="s">
+      <c r="D117" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="E115" s="102" t="s">
+      <c r="E117" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="F115" s="109"/>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A116" s="62" t="s">
+      <c r="F117" s="109"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A118" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="B116" s="63"/>
-      <c r="C116" s="95"/>
-      <c r="D116" s="96"/>
-      <c r="E116" s="97"/>
-      <c r="F116" s="67">
-        <f>SUM(E117:E124)</f>
+      <c r="B118" s="63"/>
+      <c r="C118" s="95"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="97"/>
+      <c r="F118" s="67">
+        <f>SUM(E119:E126)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A117" s="114" t="s">
+    <row r="119" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A119" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="B117" s="115" t="s">
+      <c r="B119" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="C117" s="116">
+      <c r="C119" s="116">
         <f>B62</f>
         <v>0</v>
       </c>
-      <c r="D117" s="117" t="s">
+      <c r="D119" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="E117" s="118">
-        <f>IF(C117&gt;5,0,IF(C117&gt;3,3,IF(C117&gt;1,4,5)))</f>
+      <c r="E119" s="118">
+        <f>IF(C119&gt;5,0,IF(C119&gt;3,3,IF(C119&gt;1,4,5)))</f>
         <v>5</v>
       </c>
-      <c r="F117" s="119"/>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A118" s="120" t="s">
+      <c r="F119" s="119"/>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A120" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="B118" s="115" t="s">
+      <c r="B120" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="C118" s="121">
+      <c r="C120" s="121">
         <f>B63/IF(B69=0,1,B69)</f>
         <v>0</v>
       </c>
-      <c r="D118" s="122" t="s">
+      <c r="D120" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="E118" s="118">
-        <f>IF(C118&gt;0.3,0,IF(C118&gt;0.2,1,IF(C118&gt;0.1,3,5)))</f>
+      <c r="E120" s="118">
+        <f>IF(C120&gt;0.3,0,IF(C120&gt;0.2,1,IF(C120&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F118" s="119"/>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="45" spans="1:6">
-      <c r="A119" s="120"/>
-      <c r="B119" s="115" t="s">
+      <c r="F120" s="119"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="45" spans="1:6">
+      <c r="A121" s="120"/>
+      <c r="B121" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="C119" s="121">
+      <c r="C121" s="121">
         <f>B72/IF(B71=0,1,B71)</f>
         <v>0</v>
       </c>
-      <c r="D119" s="117" t="s">
+      <c r="D121" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="E119" s="118">
-        <f>IF(C119&gt;0.6,1,IF(C119&gt;0.2,3,5))</f>
+      <c r="E121" s="118">
+        <f>IF(C121&gt;0.6,1,IF(C121&gt;0.2,3,5))</f>
         <v>5</v>
       </c>
-      <c r="F119" s="119"/>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A120" s="123" t="s">
+      <c r="F121" s="119"/>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A122" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="B120" s="124" t="s">
+      <c r="B122" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="125">
+      <c r="C122" s="125">
         <f>B64/IF(B66=0,1,B66)</f>
         <v>0</v>
       </c>
-      <c r="D120" s="122" t="s">
+      <c r="D122" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="E120" s="118">
-        <f>IF(C120&gt;0.15,0,IF(C120&gt;0.1,1,IF(C120&gt;0.05,3,5)))</f>
+      <c r="E122" s="118">
+        <f>IF(C122&gt;0.15,0,IF(C122&gt;0.1,1,IF(C122&gt;0.05,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F120" s="119"/>
-    </row>
-    <row r="121" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A121" s="123"/>
-      <c r="B121" s="124" t="s">
+      <c r="F122" s="119"/>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A123" s="123"/>
+      <c r="B123" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="C121" s="125">
+      <c r="C123" s="125">
         <f>B67/(IF(B66=0,1,B66)/6)</f>
         <v>0</v>
       </c>
-      <c r="D121" s="122" t="s">
+      <c r="D123" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="E121" s="118">
-        <f>IF(C121&gt;1,5,IF(C121&gt;0.8,3,1))</f>
+      <c r="E123" s="118">
+        <f>IF(C123&gt;1,5,IF(C123&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F121" s="119"/>
-    </row>
-    <row r="122" s="2" customFormat="1" ht="66" spans="1:6">
-      <c r="A122" s="123"/>
-      <c r="B122" s="124" t="s">
+      <c r="F123" s="119"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="66" spans="1:6">
+      <c r="A124" s="123"/>
+      <c r="B124" s="124" t="s">
         <v>179</v>
       </c>
-      <c r="C122" s="116">
+      <c r="C124" s="116">
         <f>B68/(IF(B66=0,1,B66)/30)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="122" t="s">
+      <c r="D124" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="E122" s="118">
-        <f>IF(C122&gt;1,5,IF(C122&gt;0.8,3,1))</f>
+      <c r="E124" s="118">
+        <f>IF(C124&gt;1,5,IF(C124&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F122" s="119"/>
-    </row>
-    <row r="123" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
-      <c r="A123" s="123"/>
-      <c r="B123" s="124" t="s">
+      <c r="F124" s="119"/>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="19.5" hidden="1" spans="1:6">
+      <c r="A125" s="123"/>
+      <c r="B125" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="C123" s="116"/>
-      <c r="D123" s="126" t="s">
+      <c r="C125" s="116"/>
+      <c r="D125" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="E123" s="118" t="s">
+      <c r="E125" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="F123" s="119"/>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="60" spans="1:6">
-      <c r="A124" s="127" t="s">
+      <c r="F125" s="119"/>
+    </row>
+    <row r="126" s="2" customFormat="1" ht="60" spans="1:6">
+      <c r="A126" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="B124" s="124" t="s">
+      <c r="B126" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="C124" s="128">
+      <c r="C126" s="128">
         <f>B65/IF(B70=0,1,B70)</f>
         <v>0</v>
       </c>
-      <c r="D124" s="122" t="s">
+      <c r="D126" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="E124" s="129">
-        <f>IF(C124&gt;0.3,0,IF(C124&gt;0.2,1,IF(C124&gt;0.1,3,5)))</f>
+      <c r="E126" s="129">
+        <f>IF(C126&gt;0.3,0,IF(C126&gt;0.2,1,IF(C126&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F124" s="119"/>
-    </row>
-    <row r="125" s="2" customFormat="1" spans="1:6">
-      <c r="A125" s="4"/>
-      <c r="B125" s="130"/>
-      <c r="C125" s="131"/>
-      <c r="D125" s="132"/>
-      <c r="E125" s="133"/>
-      <c r="F125" s="134"/>
-    </row>
-    <row r="126" s="2" customFormat="1" spans="1:6">
-      <c r="A126" s="4"/>
-      <c r="B126" s="130"/>
-      <c r="C126" s="131"/>
-      <c r="D126" s="132"/>
-      <c r="E126" s="133"/>
-      <c r="F126" s="134"/>
+      <c r="F126" s="119"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:6">
       <c r="A127" s="4"/>
@@ -5300,17 +5300,21 @@
       <c r="E157" s="133"/>
       <c r="F157" s="134"/>
     </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="135"/>
-      <c r="C158" s="136"/>
-      <c r="D158" s="137"/>
-      <c r="E158" s="138"/>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="135"/>
-      <c r="C159" s="136"/>
-      <c r="D159" s="137"/>
-      <c r="E159" s="138"/>
+    <row r="158" s="2" customFormat="1" spans="1:6">
+      <c r="A158" s="4"/>
+      <c r="B158" s="130"/>
+      <c r="C158" s="131"/>
+      <c r="D158" s="132"/>
+      <c r="E158" s="133"/>
+      <c r="F158" s="134"/>
+    </row>
+    <row r="159" s="2" customFormat="1" spans="1:6">
+      <c r="A159" s="4"/>
+      <c r="B159" s="130"/>
+      <c r="C159" s="131"/>
+      <c r="D159" s="132"/>
+      <c r="E159" s="133"/>
+      <c r="F159" s="134"/>
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="135"/>
@@ -5834,25 +5838,37 @@
       <c r="D246" s="137"/>
       <c r="E246" s="138"/>
     </row>
+    <row r="247" spans="2:5">
+      <c r="B247" s="135"/>
+      <c r="C247" s="136"/>
+      <c r="D247" s="137"/>
+      <c r="E247" s="138"/>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" s="135"/>
+      <c r="C248" s="136"/>
+      <c r="D248" s="137"/>
+      <c r="E248" s="138"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A90:A92"/>
     <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A95:A96"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A125"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
